--- a/digital-objects/omap/12-eye-retina-ibex/v1.2/raw/omap-12-eye-retina-ibex.xlsx
+++ b/digital-objects/omap/12-eye-retina-ibex/v1.2/raw/omap-12-eye-retina-ibex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/12-eye-retina-ibex/v1.1/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/12-eye-retina-ibex/v1.2/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC50EBA-E78A-F044-B1F3-95462AA41EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1A750E-C79E-C54C-995E-8210F4A0FEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="6540" windowWidth="34560" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="34200" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-12-eye-retina-ibex" sheetId="1" r:id="rId1"/>
@@ -560,12 +560,6 @@
     <t>Lineage marker for smooth muscle cells and pericytes. Stains retinal arteries. This represents a prioritized target for the Retina OMAP.</t>
   </si>
   <si>
-    <t>June 15, 2024</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
     <t>target_symbol</t>
   </si>
   <si>
@@ -579,6 +573,12 @@
   </si>
   <si>
     <t>https://doi.org/10.48539/HBM635.WJHB.325</t>
+  </si>
+  <si>
+    <t>June 15, 2025</t>
+  </si>
+  <si>
+    <t>v1.2</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1017,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1357,7 +1357,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1455,7 +1455,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1510,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>16</v>
@@ -1540,7 +1540,7 @@
         <v>24</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O11" s="22" t="s">
         <v>25</v>
@@ -1564,7 +1564,7 @@
         <v>31</v>
       </c>
       <c r="V11" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W11" s="22" t="s">
         <v>32</v>
